--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>等级</t>
   </si>
@@ -25,6 +25,9 @@
     <t>练功场ID</t>
   </si>
   <si>
+    <t>升级资源</t>
+  </si>
+  <si>
     <t>升级花费</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>HouseId</t>
+  </si>
+  <si>
+    <t>UpgradeRes</t>
   </si>
   <si>
     <t>UpgradeCost</t>
@@ -117,8 +123,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -126,75 +208,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,56 +230,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,15 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -505,6 +502,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +545,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -539,26 +569,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,25 +588,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,31 +606,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,100 +645,94 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,26 +1090,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,68 +1129,80 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1191,19 +1210,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>500</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1211,19 +1233,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2">
+        <v>500</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1231,19 +1256,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>500</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1251,19 +1279,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>500</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1271,19 +1302,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>500</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1291,19 +1325,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>500</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1311,19 +1348,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -1331,19 +1371,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>500</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -1351,19 +1394,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>500</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -1371,19 +1417,22 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>500</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1391,19 +1440,22 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>500</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>1100</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -1411,15 +1463,18 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>500</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>1200</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>等级</t>
   </si>
@@ -71,30 +71,6 @@
   </si>
   <si>
     <t>1|20;2|20</t>
-  </si>
-  <si>
-    <t>Lobby_1</t>
-  </si>
-  <si>
-    <t>Lobby_2</t>
-  </si>
-  <si>
-    <t>Lobby_3</t>
-  </si>
-  <si>
-    <t>Lobby_5</t>
-  </si>
-  <si>
-    <t>Lobby_6</t>
-  </si>
-  <si>
-    <t>Lobby_7</t>
-  </si>
-  <si>
-    <t>Lobby_4</t>
-  </si>
-  <si>
-    <t>Lobby_8</t>
   </si>
 </sst>
 </file>
@@ -102,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -130,9 +106,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,7 +144,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,36 +155,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,7 +167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,14 +175,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,49 +212,36 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -282,55 +258,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,127 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +463,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,45 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -578,6 +539,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -594,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,37 +582,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,94 +618,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,7 +1071,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1170,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -1215,8 +1191,8 @@
       <c r="D5" s="2">
         <v>500</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
+      <c r="E5" s="2">
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1238,8 +1214,8 @@
       <c r="D6" s="2">
         <v>500</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
+      <c r="E6" s="2">
+        <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1261,8 +1237,8 @@
       <c r="D7" s="2">
         <v>500</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
+      <c r="E7" s="2">
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -1284,8 +1260,8 @@
       <c r="D8" s="2">
         <v>500</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
+      <c r="E8" s="2">
+        <v>1</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
@@ -1307,8 +1283,8 @@
       <c r="D9" s="2">
         <v>500</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
+      <c r="E9" s="2">
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
@@ -1330,8 +1306,8 @@
       <c r="D10" s="2">
         <v>500</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
+      <c r="E10" s="2">
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>6</v>
@@ -1353,8 +1329,8 @@
       <c r="D11" s="2">
         <v>500</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
+      <c r="E11" s="2">
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1376,8 +1352,8 @@
       <c r="D12" s="2">
         <v>500</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
+      <c r="E12" s="2">
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -1399,8 +1375,8 @@
       <c r="D13" s="2">
         <v>500</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
+      <c r="E13" s="2">
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -1422,8 +1398,8 @@
       <c r="D14" s="2">
         <v>500</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
+      <c r="E14" s="2">
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <v>4</v>
@@ -1445,8 +1421,8 @@
       <c r="D15" s="2">
         <v>500</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
+      <c r="E15" s="2">
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>5</v>
@@ -1468,8 +1444,8 @@
       <c r="D16" s="2">
         <v>500</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>25</v>
+      <c r="E16" s="2">
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <v>6</v>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -70,7 +70,7 @@
     <t>LevelUpSpeed</t>
   </si>
   <si>
-    <t>1|20;2|20</t>
+    <t>1001|20;1002|20</t>
   </si>
 </sst>
 </file>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -106,58 +106,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -167,37 +115,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,33 +207,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -258,13 +258,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,169 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +467,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -478,63 +487,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,16 +516,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,14 +1071,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="2" customWidth="1"/>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -78,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -99,10 +99,109 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,8 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,107 +237,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,16 +492,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,21 +513,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,8 +535,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,8 +544,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,14 +1071,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1206,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -1252,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1275,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1298,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -1367,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
@@ -1390,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
@@ -1436,7 +1436,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25990" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -106,6 +106,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -115,19 +136,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -137,7 +221,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,98 +242,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -258,31 +258,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,49 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,97 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +463,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +506,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,16 +536,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,34 +564,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,19 +582,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,112 +603,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,22 +1071,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.1272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.12727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.3727272727273" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>等级</t>
   </si>
@@ -70,7 +70,40 @@
     <t>LevelUpSpeed</t>
   </si>
   <si>
-    <t>1001|20;1002|20</t>
+    <t>1001|50;1002|20</t>
+  </si>
+  <si>
+    <t>1001|300;1002|120</t>
+  </si>
+  <si>
+    <t>1003|50;1002|600</t>
+  </si>
+  <si>
+    <t>1003|400;1002|2000</t>
+  </si>
+  <si>
+    <t>1003|2500;1002|12000</t>
+  </si>
+  <si>
+    <t>1003|12000;1004|5000</t>
+  </si>
+  <si>
+    <t>1003|80;1002|600</t>
+  </si>
+  <si>
+    <t>1003|300;1002|1800</t>
+  </si>
+  <si>
+    <t>1003|600;1002|3000</t>
+  </si>
+  <si>
+    <t>1003|1500;1002|6000</t>
+  </si>
+  <si>
+    <t>1003|5000;1004|2000</t>
+  </si>
+  <si>
+    <t>1003|25000;1004|12000</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1104,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1079,7 +1112,7 @@
     <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="2" customWidth="1"/>
@@ -1189,7 +1222,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1209,10 +1242,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1232,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1255,10 +1288,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1278,10 +1311,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>500</v>
+        <v>48000</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1301,10 +1334,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>500</v>
+        <v>125000</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1324,10 +1357,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1347,10 +1380,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1370,10 +1403,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1393,10 +1426,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>500</v>
+        <v>35000</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1416,10 +1449,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>500</v>
+        <v>80000</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1439,10 +1472,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -112,9 +112,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,8 +140,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,114 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,187 +291,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,17 +509,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,17 +538,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,18 +559,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,145 +603,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1104,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1248,7 +1248,7 @@
         <v>1200</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1271,7 +1271,7 @@
         <v>3000</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -1294,7 +1294,7 @@
         <v>12000</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
@@ -1317,7 +1317,7 @@
         <v>48000</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
@@ -1340,7 +1340,7 @@
         <v>125000</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2">
         <v>6</v>
@@ -1363,7 +1363,7 @@
         <v>4000</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>8000</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -1409,7 +1409,7 @@
         <v>18000</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -1432,7 +1432,7 @@
         <v>35000</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2">
         <v>4</v>
@@ -1455,7 +1455,7 @@
         <v>80000</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2">
         <v>5</v>
@@ -1478,7 +1478,7 @@
         <v>180000</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F16" s="2">
         <v>6</v>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>等级</t>
   </si>
@@ -40,6 +40,9 @@
     <t>经验获取速度</t>
   </si>
   <si>
+    <t>练功时长，秒</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>LevelUpSpeed</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
   <si>
     <t>1001|50;1002|20</t>
@@ -111,8 +117,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -132,6 +138,126 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -148,126 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -291,13 +297,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,13 +375,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,31 +417,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,115 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,29 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +536,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,17 +562,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,27 +1105,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,77 +1148,89 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1219,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>200</v>
@@ -1233,8 +1252,11 @@
       <c r="G5" s="2">
         <v>100</v>
       </c>
+      <c r="H5" s="2">
+        <v>120</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1242,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>1200</v>
@@ -1256,8 +1278,11 @@
       <c r="G6" s="2">
         <v>200</v>
       </c>
+      <c r="H6" s="2">
+        <v>180</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1265,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>3000</v>
@@ -1279,8 +1304,11 @@
       <c r="G7" s="2">
         <v>300</v>
       </c>
+      <c r="H7" s="2">
+        <v>240</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1288,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>12000</v>
@@ -1302,8 +1330,11 @@
       <c r="G8" s="2">
         <v>400</v>
       </c>
+      <c r="H8" s="2">
+        <v>360</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1311,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
         <v>48000</v>
@@ -1325,8 +1356,11 @@
       <c r="G9" s="2">
         <v>500</v>
       </c>
+      <c r="H9" s="2">
+        <v>480</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1334,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>125000</v>
@@ -1348,8 +1382,11 @@
       <c r="G10" s="2">
         <v>600</v>
       </c>
+      <c r="H10" s="2">
+        <v>600</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1357,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>4000</v>
@@ -1371,8 +1408,11 @@
       <c r="G11" s="2">
         <v>700</v>
       </c>
+      <c r="H11" s="2">
+        <v>120</v>
+      </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -1380,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>8000</v>
@@ -1394,8 +1434,11 @@
       <c r="G12" s="2">
         <v>800</v>
       </c>
+      <c r="H12" s="2">
+        <v>180</v>
+      </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -1403,7 +1446,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>18000</v>
@@ -1417,8 +1460,11 @@
       <c r="G13" s="2">
         <v>900</v>
       </c>
+      <c r="H13" s="2">
+        <v>240</v>
+      </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -1426,7 +1472,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>35000</v>
@@ -1440,8 +1486,11 @@
       <c r="G14" s="2">
         <v>1000</v>
       </c>
+      <c r="H14" s="2">
+        <v>360</v>
+      </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1449,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>80000</v>
@@ -1463,8 +1512,11 @@
       <c r="G15" s="2">
         <v>1100</v>
       </c>
+      <c r="H15" s="2">
+        <v>480</v>
+      </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -1472,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>180000</v>
@@ -1485,6 +1537,9 @@
       </c>
       <c r="G16" s="2">
         <v>1200</v>
+      </c>
+      <c r="H16" s="2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26210" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,6 +99,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -106,142 +242,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -264,31 +264,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,19 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,121 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,15 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -487,6 +478,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,13 +517,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,49 +564,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,22 +1071,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.62727272727273" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.3727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.12727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.3727272727273" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26210" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -139,96 +139,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +168,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -250,6 +236,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -258,11 +259,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,9 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +506,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +550,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -547,44 +576,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,16 +594,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,23 +1110,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.62727272727273" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7545454545455" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.3727272727273" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -145,90 +145,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,17 +184,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,9 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,7 +276,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,13 +303,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +333,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,151 +429,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +502,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,16 +545,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -580,25 +589,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,7 +1110,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
         <v>120</v>
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H6" s="2">
         <v>180</v>
@@ -1302,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="H7" s="2">
         <v>240</v>
@@ -1328,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="H8" s="2">
         <v>360</v>
@@ -1354,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="H9" s="2">
         <v>480</v>
@@ -1380,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="2">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="H10" s="2">
         <v>600</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2">
         <v>120</v>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="H12" s="2">
         <v>180</v>
@@ -1458,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="2">
-        <v>900</v>
+        <v>225</v>
       </c>
       <c r="H13" s="2">
         <v>240</v>
@@ -1484,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H14" s="2">
         <v>360</v>
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="2">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="H15" s="2">
         <v>480</v>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="2">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="H16" s="2">
         <v>600</v>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26210" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -139,9 +139,92 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,26 +244,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,91 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,9 +508,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,17 +565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,44 +597,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,23 +1110,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.62727272727273" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7545454545455" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.3727272727273" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H6" s="2">
         <v>180</v>
@@ -1302,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="H7" s="2">
         <v>240</v>
@@ -1328,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="H8" s="2">
         <v>360</v>
@@ -1354,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="H9" s="2">
         <v>480</v>
@@ -1380,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="2">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="H10" s="2">
         <v>600</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="H11" s="2">
         <v>120</v>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="H12" s="2">
         <v>180</v>
@@ -1458,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="2">
-        <v>225</v>
+        <v>900</v>
       </c>
       <c r="H13" s="2">
         <v>240</v>
@@ -1484,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="2">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="2">
         <v>360</v>
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="2">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="H15" s="2">
         <v>480</v>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="2">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="H16" s="2">
         <v>600</v>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26210" windowHeight="15000"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -139,22 +139,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +184,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -175,22 +207,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,79 +267,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,44 +508,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,9 +562,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,23 +1110,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.62727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.3727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7545454545455" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.3727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H6" s="2">
         <v>180</v>
@@ -1302,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="H7" s="2">
         <v>240</v>
@@ -1328,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="H8" s="2">
         <v>360</v>
@@ -1354,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="H9" s="2">
         <v>480</v>
@@ -1380,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="2">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="H10" s="2">
         <v>600</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2">
         <v>120</v>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="H12" s="2">
         <v>180</v>
@@ -1458,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="2">
-        <v>900</v>
+        <v>225</v>
       </c>
       <c r="H13" s="2">
         <v>240</v>
@@ -1484,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H14" s="2">
         <v>360</v>
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="2">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="H15" s="2">
         <v>480</v>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="2">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="H16" s="2">
         <v>600</v>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>等级</t>
   </si>
@@ -76,40 +76,43 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>1001|50;1002|20</t>
-  </si>
-  <si>
-    <t>1001|300;1002|120</t>
-  </si>
-  <si>
-    <t>1003|50;1002|600</t>
-  </si>
-  <si>
-    <t>1003|400;1002|2000</t>
-  </si>
-  <si>
-    <t>1003|2500;1002|12000</t>
-  </si>
-  <si>
-    <t>1003|12000;1004|5000</t>
-  </si>
-  <si>
-    <t>1003|80;1002|600</t>
-  </si>
-  <si>
-    <t>1003|300;1002|1800</t>
-  </si>
-  <si>
-    <t>1003|600;1002|3000</t>
-  </si>
-  <si>
-    <t>1003|1500;1002|6000</t>
-  </si>
-  <si>
-    <t>1003|5000;1004|2000</t>
-  </si>
-  <si>
-    <t>1003|25000;1004|12000</t>
+    <t>1001|50;1002|25</t>
+  </si>
+  <si>
+    <t>主石</t>
+  </si>
+  <si>
+    <t>1001|160;1002|80</t>
+  </si>
+  <si>
+    <t>1003|50;1002|250</t>
+  </si>
+  <si>
+    <t>1003|240;1002|1200</t>
+  </si>
+  <si>
+    <t>1003|1200;1002|6000</t>
+  </si>
+  <si>
+    <t>1003|5000;1004|2500</t>
+  </si>
+  <si>
+    <t>1003|80;1002|400</t>
+  </si>
+  <si>
+    <t>1003|160;1002|800</t>
+  </si>
+  <si>
+    <t>1003|360;1002|1800</t>
+  </si>
+  <si>
+    <t>1003|800;1002|4000</t>
+  </si>
+  <si>
+    <t>1003|2400;1004|1200</t>
+  </si>
+  <si>
+    <t>1003|12000;1004|6000</t>
   </si>
 </sst>
 </file>
@@ -119,8 +122,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,9 +142,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,24 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,91 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,31 +300,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,145 +438,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,15 +505,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +539,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -575,7 +578,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,19 +624,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,116 +645,116 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,6 +762,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1105,7 +1113,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1113,7 +1121,7 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
@@ -1230,7 +1238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1255,8 +1263,14 @@
       <c r="H5" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1264,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>1200</v>
@@ -1281,8 +1295,11 @@
       <c r="H6" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="K6" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1290,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>3000</v>
@@ -1307,8 +1324,14 @@
       <c r="H7" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="K7" s="2">
+        <v>500</v>
+      </c>
+      <c r="L7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1316,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>12000</v>
@@ -1333,8 +1356,14 @@
       <c r="H8" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="K8" s="2">
+        <v>2400</v>
+      </c>
+      <c r="L8" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1342,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>48000</v>
@@ -1359,8 +1388,14 @@
       <c r="H9" s="2">
         <v>480</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="K9" s="2">
+        <v>12000</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1368,7 +1403,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>125000</v>
@@ -1385,8 +1420,11 @@
       <c r="H10" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="L10" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1394,7 +1432,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>4000</v>
@@ -1411,8 +1449,14 @@
       <c r="H11" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="K11" s="2">
+        <v>800</v>
+      </c>
+      <c r="L11" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -1420,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>8000</v>
@@ -1437,8 +1481,14 @@
       <c r="H12" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12" s="2">
+        <v>1600</v>
+      </c>
+      <c r="L12" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -1446,7 +1496,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>18000</v>
@@ -1463,8 +1513,14 @@
       <c r="H13" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="K13" s="2">
+        <v>3600</v>
+      </c>
+      <c r="L13" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -1472,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>35000</v>
@@ -1489,8 +1545,14 @@
       <c r="H14" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="K14" s="2">
+        <v>8000</v>
+      </c>
+      <c r="L14" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1498,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>80000</v>
@@ -1515,8 +1577,11 @@
       <c r="H15" s="2">
         <v>480</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="L15" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -1524,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>180000</v>
@@ -1541,10 +1606,120 @@
       <c r="H16" s="2">
         <v>600</v>
       </c>
+      <c r="L16" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="9:12">
+      <c r="I26" s="3"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="11:12">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="11:12">
+      <c r="K28" s="4"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="9:12">
+      <c r="I29" s="3"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="11:12">
+      <c r="K30" s="3"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="11:12">
+      <c r="K31" s="3"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="9:12">
+      <c r="I32" s="5"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="10:12">
+      <c r="J33" s="5"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="11:12">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="10:12">
+      <c r="J35" s="5"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="9:12">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="10:12">
+      <c r="J37" s="5"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="10:12">
+      <c r="J38" s="5"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="10:12">
+      <c r="J39" s="4"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="9:12">
+      <c r="I40" s="5"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="10:12">
+      <c r="J41" s="4"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="10:12">
+      <c r="J42" s="4"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="10:12">
+      <c r="J43" s="5"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="9:12">
+      <c r="I44" s="5"/>
+      <c r="J44"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="12:12">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="10:12">
+      <c r="J46" s="5"/>
+      <c r="L46" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
-    <sortCondition ref="A5"/>
+  <sortState ref="J24:L48">
+    <sortCondition ref="J24"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25690" windowHeight="14910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>等级</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>1001|50;1002|25</t>
-  </si>
-  <si>
-    <t>主石</t>
   </si>
   <si>
     <t>1001|160;1002|80</t>
@@ -122,8 +119,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -155,15 +152,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +175,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -185,14 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -201,10 +236,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,9 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,21 +267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -256,30 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,25 +297,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,157 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +502,24 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,8 +557,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,60 +603,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,137 +621,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,7 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,23 +1114,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.62727272727273" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7545454545455" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.3727272727273" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,7 +1234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1263,14 +1259,8 @@
       <c r="H5" s="2">
         <v>120</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1278,7 +1268,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>1200</v>
@@ -1295,11 +1285,8 @@
       <c r="H6" s="2">
         <v>180</v>
       </c>
-      <c r="K6" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1307,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>3000</v>
@@ -1324,14 +1311,8 @@
       <c r="H7" s="2">
         <v>240</v>
       </c>
-      <c r="K7" s="2">
-        <v>500</v>
-      </c>
-      <c r="L7" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1339,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>12000</v>
@@ -1356,14 +1337,8 @@
       <c r="H8" s="2">
         <v>360</v>
       </c>
-      <c r="K8" s="2">
-        <v>2400</v>
-      </c>
-      <c r="L8" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1371,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
         <v>48000</v>
@@ -1388,14 +1363,8 @@
       <c r="H9" s="2">
         <v>480</v>
       </c>
-      <c r="K9" s="2">
-        <v>12000</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1403,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>125000</v>
@@ -1420,11 +1389,8 @@
       <c r="H10" s="2">
         <v>600</v>
       </c>
-      <c r="L10" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1432,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>4000</v>
@@ -1449,14 +1415,8 @@
       <c r="H11" s="2">
         <v>120</v>
       </c>
-      <c r="K11" s="2">
-        <v>800</v>
-      </c>
-      <c r="L11" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -1464,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>8000</v>
@@ -1481,14 +1441,8 @@
       <c r="H12" s="2">
         <v>180</v>
       </c>
-      <c r="K12" s="2">
-        <v>1600</v>
-      </c>
-      <c r="L12" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -1496,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>18000</v>
@@ -1513,14 +1467,8 @@
       <c r="H13" s="2">
         <v>240</v>
       </c>
-      <c r="K13" s="2">
-        <v>3600</v>
-      </c>
-      <c r="L13" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -1528,7 +1476,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>35000</v>
@@ -1545,14 +1493,8 @@
       <c r="H14" s="2">
         <v>360</v>
       </c>
-      <c r="K14" s="2">
-        <v>8000</v>
-      </c>
-      <c r="L14" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1560,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>80000</v>
@@ -1577,11 +1519,8 @@
       <c r="H15" s="2">
         <v>480</v>
       </c>
-      <c r="L15" s="2">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -1589,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>180000</v>
@@ -1606,9 +1545,6 @@
       <c r="H16" s="2">
         <v>600</v>
       </c>
-      <c r="L16" s="2">
-        <v>12000</v>
-      </c>
     </row>
     <row r="24" spans="11:11">
       <c r="K24" s="3"/>
@@ -1618,7 +1554,6 @@
     </row>
     <row r="26" spans="9:12">
       <c r="I26" s="3"/>
-      <c r="J26" s="2"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
@@ -1632,25 +1567,24 @@
     </row>
     <row r="29" spans="9:12">
       <c r="I29" s="3"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="11:12">
       <c r="K30" s="3"/>
-      <c r="L30" s="5"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="11:12">
       <c r="K31" s="3"/>
-      <c r="L31" s="5"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="9:12">
-      <c r="I32" s="5"/>
+      <c r="I32" s="4"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="10:12">
-      <c r="J33" s="5"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
@@ -1659,23 +1593,23 @@
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="10:12">
-      <c r="J35" s="5"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="9:12">
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="3"/>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="10:12">
-      <c r="J37" s="5"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="3"/>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="10:12">
-      <c r="J38" s="5"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
     </row>
@@ -1685,7 +1619,7 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="9:12">
-      <c r="I40" s="5"/>
+      <c r="I40" s="4"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
@@ -1700,21 +1634,19 @@
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="10:12">
-      <c r="J43" s="5"/>
-      <c r="K43" s="2"/>
+      <c r="J43" s="4"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="9:12">
-      <c r="I44" s="5"/>
+      <c r="I44" s="4"/>
       <c r="J44"/>
-      <c r="K44" s="2"/>
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="12:12">
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="10:12">
-      <c r="J46" s="5"/>
+      <c r="J46" s="4"/>
       <c r="L46" s="3"/>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25690" windowHeight="14910"/>
+    <workbookView windowWidth="30850" windowHeight="12110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>等级</t>
   </si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Level</t>
@@ -138,6 +144,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -146,7 +190,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,40 +258,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,72 +275,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,35 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,26 +553,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,16 +598,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,28 +1115,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5:L16"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.62727272727273" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.3727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7545454545455" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.3727272727273" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="7.62727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.3727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.7545454545455" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.3727272727273" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,503 +1161,551 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
         <v>200</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
         <v>50</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
         <v>1200</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
       </c>
       <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
         <v>120</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
         <v>3000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
         <v>225</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
         <v>12000</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>900</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
         <v>48000</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>6</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>1600</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>480</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
         <v>125000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>7</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>6</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>5000</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
         <v>4000</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>50</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2">
         <v>8000</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>120</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2">
         <v>18000</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>225</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
         <v>35000</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>6</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>900</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2">
         <v>80000</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>7</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>1600</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
         <v>180000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>8</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>5000</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="11:11">
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="11:11">
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="9:12">
-      <c r="I26" s="3"/>
-      <c r="K26" s="3"/>
+    <row r="24" spans="12:12">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="12:12">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="10:13">
+      <c r="J26" s="3"/>
       <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="11:12">
-      <c r="K27" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="12:13">
       <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="11:12">
-      <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="9:12">
-      <c r="I29" s="3"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="11:12">
-      <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="11:12">
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="9:12">
-      <c r="I32" s="4"/>
-      <c r="K32" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="12:13">
+      <c r="L28" s="4"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="10:13">
+      <c r="J29" s="3"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="12:13">
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="12:13">
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="10:13">
+      <c r="J32" s="4"/>
       <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="10:12">
-      <c r="J33" s="4"/>
-      <c r="K33" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="11:13">
+      <c r="K33" s="4"/>
       <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="11:12">
-      <c r="K34" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="12:13">
       <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="10:12">
-      <c r="J35" s="4"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="11:13">
       <c r="K35" s="4"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="9:12">
-      <c r="I36" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="10:13">
       <c r="J36" s="4"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="10:12">
-      <c r="J37" s="4"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="10:12">
-      <c r="J38" s="4"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="10:12">
-      <c r="J39" s="4"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="9:12">
-      <c r="I40" s="4"/>
-      <c r="K40" s="3"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="11:13">
+      <c r="K37" s="4"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="11:13">
+      <c r="K38" s="4"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="11:13">
+      <c r="K39" s="4"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="10:13">
+      <c r="J40" s="4"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="10:12">
-      <c r="J41" s="4"/>
-      <c r="K41" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="11:13">
+      <c r="K41" s="4"/>
       <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="10:12">
-      <c r="J42" s="4"/>
-      <c r="K42" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="11:13">
+      <c r="K42" s="4"/>
       <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="10:12">
-      <c r="J43" s="4"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="9:12">
-      <c r="I44" s="4"/>
-      <c r="J44"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="12:12">
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="10:12">
-      <c r="J46" s="4"/>
-      <c r="L46" s="3"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="11:13">
+      <c r="K43" s="4"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="10:13">
+      <c r="J44" s="4"/>
+      <c r="K44"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="13:13">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="11:13">
+      <c r="K46" s="4"/>
+      <c r="M46" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="J24:L48">
-    <sortCondition ref="J24"/>
+  <sortState ref="K24:M48">
+    <sortCondition ref="K24"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30850" windowHeight="12110"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -85,37 +85,40 @@
     <t>1001|50;1002|25</t>
   </si>
   <si>
+    <t>主石</t>
+  </si>
+  <si>
     <t>1001|160;1002|80</t>
   </si>
   <si>
-    <t>1003|50;1002|250</t>
-  </si>
-  <si>
-    <t>1003|240;1002|1200</t>
-  </si>
-  <si>
-    <t>1003|1200;1002|6000</t>
+    <t>1003|100;1002|250</t>
+  </si>
+  <si>
+    <t>1003|500;1002|1200</t>
+  </si>
+  <si>
+    <t>1003|2400;1002|6000</t>
+  </si>
+  <si>
+    <t>1003|10000;1004|5000</t>
+  </si>
+  <si>
+    <t>1003|160;1002|400</t>
+  </si>
+  <si>
+    <t>1003|320;1002|800</t>
+  </si>
+  <si>
+    <t>1003|750;1002|1800</t>
+  </si>
+  <si>
+    <t>1003|1600;1002|4000</t>
   </si>
   <si>
     <t>1003|5000;1004|2500</t>
   </si>
   <si>
-    <t>1003|80;1002|400</t>
-  </si>
-  <si>
-    <t>1003|160;1002|800</t>
-  </si>
-  <si>
-    <t>1003|360;1002|1800</t>
-  </si>
-  <si>
-    <t>1003|800;1002|4000</t>
-  </si>
-  <si>
-    <t>1003|2400;1004|1200</t>
-  </si>
-  <si>
-    <t>1003|12000;1004|6000</t>
+    <t>1003|24000;1004|12000</t>
   </si>
 </sst>
 </file>
@@ -123,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,6 +147,126 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -152,78 +275,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,59 +290,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -303,175 +306,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,16 +515,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -538,24 +550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,22 +573,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,16 +588,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,137 +630,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,7 +771,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1115,28 +1131,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="7.62727272727273" style="2" customWidth="1"/>
+    <col min="1" max="2" width="7.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.3727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7545454545455" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.3727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.7583333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1252,7 +1268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1280,8 +1296,14 @@
       <c r="I5" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1292,7 +1314,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>1200</v>
@@ -1309,8 +1331,11 @@
       <c r="I6" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1321,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>3000</v>
@@ -1338,8 +1363,14 @@
       <c r="I7" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7" s="2">
+        <v>500</v>
+      </c>
+      <c r="M7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1350,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>12000</v>
@@ -1367,8 +1398,14 @@
       <c r="I8" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8" s="2">
+        <v>2400</v>
+      </c>
+      <c r="M8" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1379,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>48000</v>
@@ -1396,8 +1433,14 @@
       <c r="I9" s="2">
         <v>480</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="L9" s="2">
+        <v>12000</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1408,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2">
         <v>125000</v>
@@ -1425,8 +1468,11 @@
       <c r="I10" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="M10" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1437,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <v>4000</v>
@@ -1454,8 +1500,14 @@
       <c r="I11" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L11" s="2">
+        <v>800</v>
+      </c>
+      <c r="M11" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1466,7 +1518,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>8000</v>
@@ -1483,8 +1535,14 @@
       <c r="I12" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L12" s="2">
+        <v>1600</v>
+      </c>
+      <c r="M12" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1495,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <v>18000</v>
@@ -1512,8 +1570,14 @@
       <c r="I13" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="L13" s="2">
+        <v>3600</v>
+      </c>
+      <c r="M13" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1524,7 +1588,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2">
         <v>35000</v>
@@ -1541,8 +1605,14 @@
       <c r="I14" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="L14" s="2">
+        <v>8000</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1553,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2">
         <v>80000</v>
@@ -1570,8 +1640,11 @@
       <c r="I15" s="2">
         <v>480</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="M15" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1582,7 +1655,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2">
         <v>180000</v>
@@ -1599,113 +1672,189 @@
       <c r="I16" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="12:12">
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="12:12">
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="10:13">
-      <c r="J26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="12:13">
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="12:13">
-      <c r="L28" s="4"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="10:13">
-      <c r="J29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="12:13">
-      <c r="L30" s="3"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="12:13">
-      <c r="L31" s="3"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="10:13">
-      <c r="J32" s="4"/>
-      <c r="L32" s="3"/>
+      <c r="M16" s="2">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="15:15">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="13:16">
+      <c r="M20" s="3"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="13:16">
+      <c r="M21" s="4"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="15:16">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="13:16">
+      <c r="M23" s="5"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="12:16">
+      <c r="L24" s="6"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="12:16">
+      <c r="L25" s="6"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="10:16">
+      <c r="J26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="12:16">
+      <c r="L27" s="6"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="12:16">
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="10:16">
+      <c r="J29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="12:16">
+      <c r="L30" s="6"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="12:16">
+      <c r="L31" s="6"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="10:16">
+      <c r="J32" s="7"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="11:13">
-      <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="12:13">
-      <c r="L34" s="3"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="11:16">
+      <c r="K33" s="7"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="12:16">
+      <c r="L34" s="6"/>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="11:13">
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="11:16">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="10:13">
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="11:13">
-      <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="11:13">
-      <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="11:13">
-      <c r="K39" s="4"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="10:13">
-      <c r="J40" s="4"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="10:16">
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="11:16">
+      <c r="K37" s="7"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="11:16">
+      <c r="K38" s="7"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="5"/>
+      <c r="N38"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="11:16">
+      <c r="K39" s="7"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="9"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="10:16">
+      <c r="J40" s="7"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
     </row>
     <row r="41" spans="11:13">
-      <c r="K41" s="4"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" spans="11:13">
-      <c r="K42" s="4"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
     </row>
     <row r="43" spans="11:13">
-      <c r="K43" s="4"/>
-      <c r="M43" s="3"/>
+      <c r="K43" s="7"/>
+      <c r="M43" s="6"/>
     </row>
     <row r="44" spans="10:13">
-      <c r="J44" s="4"/>
+      <c r="J44" s="7"/>
       <c r="K44"/>
-      <c r="M44" s="3"/>
+      <c r="M44" s="6"/>
     </row>
     <row r="45" spans="13:13">
-      <c r="M45" s="3"/>
+      <c r="M45" s="6"/>
     </row>
     <row r="46" spans="11:13">
-      <c r="K46" s="4"/>
-      <c r="M46" s="3"/>
+      <c r="K46" s="7"/>
+      <c r="M46" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="K24:M48">
-    <sortCondition ref="K24"/>
+  <sortState ref="N18:P42">
+    <sortCondition ref="N18"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -97,10 +97,10 @@
     <t>1003|500;1002|1200</t>
   </si>
   <si>
-    <t>1003|2400;1002|6000</t>
-  </si>
-  <si>
-    <t>1003|10000;1004|5000</t>
+    <t>1003|2400;1002|4500</t>
+  </si>
+  <si>
+    <t>1003|8000;1004|6000</t>
   </si>
   <si>
     <t>1003|160;1002|400</t>
@@ -112,13 +112,13 @@
     <t>1003|750;1002|1800</t>
   </si>
   <si>
-    <t>1003|1600;1002|4000</t>
+    <t>1003|1600;1002|2500</t>
   </si>
   <si>
     <t>1003|5000;1004|2500</t>
   </si>
   <si>
-    <t>1003|24000;1004|12000</t>
+    <t>1003|18000;1004|15000</t>
   </si>
 </sst>
 </file>
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -148,6 +148,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -156,13 +163,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +176,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -184,13 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -199,40 +267,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,53 +290,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +539,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -578,17 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,25 +612,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,137 +630,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,20 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1684,13 +1671,10 @@
     </row>
     <row r="20" spans="13:16">
       <c r="M20" s="3"/>
-      <c r="N20" s="2"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="13:16">
-      <c r="M21" s="4"/>
-      <c r="N21" s="2"/>
+    <row r="21" spans="15:16">
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
@@ -1699,158 +1683,157 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="13:16">
-      <c r="M23" s="5"/>
-      <c r="N23" s="2"/>
+      <c r="M23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="12:16">
-      <c r="L24" s="6"/>
+      <c r="L24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="7"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="12:16">
-      <c r="L25" s="6"/>
+      <c r="L25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="7"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" spans="10:16">
-      <c r="J26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="12:16">
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="12:16">
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="10:16">
-      <c r="J29" s="6"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="J29" s="3"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="12:16">
-      <c r="L30" s="6"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="7"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="8"/>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" spans="12:16">
-      <c r="L31" s="6"/>
+      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="7"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="8"/>
+      <c r="P31" s="4"/>
     </row>
     <row r="32" spans="10:16">
-      <c r="J32" s="7"/>
-      <c r="L32" s="6"/>
+      <c r="J32" s="4"/>
+      <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="7"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="8"/>
+      <c r="P32" s="4"/>
     </row>
     <row r="33" spans="11:16">
-      <c r="K33" s="7"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="8"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="8"/>
+      <c r="P33" s="4"/>
     </row>
     <row r="34" spans="12:16">
-      <c r="L34" s="6"/>
+      <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="11:16">
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="8"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="10:16">
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="6"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="8"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="11:16">
-      <c r="K37" s="7"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="7"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="11:16">
-      <c r="K38" s="7"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="5"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
       <c r="N38"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="11:16">
-      <c r="K39" s="7"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="9"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="10:16">
-      <c r="J40" s="7"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="7"/>
+      <c r="J40" s="4"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="4"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="11:13">
-      <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" spans="11:13">
-      <c r="K42" s="7"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="11:13">
-      <c r="K43" s="7"/>
-      <c r="M43" s="6"/>
+      <c r="K43" s="4"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="10:13">
-      <c r="J44" s="7"/>
+      <c r="J44" s="4"/>
       <c r="K44"/>
-      <c r="M44" s="6"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="13:13">
-      <c r="M45" s="6"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" spans="11:13">
-      <c r="K46" s="7"/>
-      <c r="M46" s="6"/>
+      <c r="K46" s="4"/>
+      <c r="M46" s="3"/>
     </row>
   </sheetData>
   <sortState ref="N18:P42">

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -40,7 +40,7 @@
     <t>练功位数量</t>
   </si>
   <si>
-    <t>经验获取速度</t>
+    <t>经验获取值</t>
   </si>
   <si>
     <t>练功时长，秒</t>
@@ -127,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -148,7 +148,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,7 +184,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,121 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,50 +511,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,15 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,16 +559,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1123,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1278,11 +1278,12 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="I5" s="2">
-        <v>120</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1313,11 +1314,12 @@
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="I6" s="2">
-        <v>180</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="L6" s="2">
         <v>160</v>
       </c>
@@ -1345,11 +1347,12 @@
         <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>225</v>
+        <v>6000</v>
       </c>
       <c r="I7" s="2">
         <v>240</v>
       </c>
+      <c r="J7" s="2"/>
       <c r="L7" s="2">
         <v>500</v>
       </c>
@@ -1380,11 +1383,12 @@
         <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>900</v>
+        <v>18000</v>
       </c>
       <c r="I8" s="2">
-        <v>360</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="L8" s="2">
         <v>2400</v>
       </c>
@@ -1415,11 +1419,12 @@
         <v>5</v>
       </c>
       <c r="H9" s="2">
-        <v>1600</v>
+        <v>60000</v>
       </c>
       <c r="I9" s="2">
-        <v>480</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="L9" s="2">
         <v>12000</v>
       </c>
@@ -1450,11 +1455,12 @@
         <v>6</v>
       </c>
       <c r="H10" s="2">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="I10" s="2">
-        <v>600</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="J10" s="2"/>
       <c r="M10" s="2">
         <v>10000</v>
       </c>
@@ -1482,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="I11" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="L11" s="2">
         <v>800</v>
@@ -1517,10 +1523,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="I12" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="L12" s="2">
         <v>1600</v>
@@ -1552,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>225</v>
+        <v>6000</v>
       </c>
       <c r="I13" s="2">
         <v>240</v>
@@ -1587,10 +1593,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="2">
-        <v>900</v>
+        <v>18000</v>
       </c>
       <c r="I14" s="2">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="L14" s="2">
         <v>8000</v>
@@ -1622,10 +1628,10 @@
         <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>1600</v>
+        <v>60000</v>
       </c>
       <c r="I15" s="2">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="M15" s="2">
         <v>5000</v>
@@ -1654,10 +1660,10 @@
         <v>6</v>
       </c>
       <c r="H16" s="2">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="I16" s="2">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="M16" s="2">
         <v>24000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -82,43 +82,43 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>1001|50;1002|25</t>
+    <t>1001|25;1002|50</t>
   </si>
   <si>
     <t>主石</t>
   </si>
   <si>
-    <t>1001|160;1002|80</t>
-  </si>
-  <si>
-    <t>1003|100;1002|250</t>
-  </si>
-  <si>
-    <t>1003|500;1002|1200</t>
-  </si>
-  <si>
-    <t>1003|2400;1002|4500</t>
-  </si>
-  <si>
-    <t>1003|8000;1004|6000</t>
-  </si>
-  <si>
-    <t>1003|160;1002|400</t>
-  </si>
-  <si>
-    <t>1003|320;1002|800</t>
-  </si>
-  <si>
-    <t>1003|750;1002|1800</t>
-  </si>
-  <si>
-    <t>1003|1600;1002|2500</t>
-  </si>
-  <si>
-    <t>1003|5000;1004|2500</t>
-  </si>
-  <si>
-    <t>1003|18000;1004|15000</t>
+    <t>1001|300;1002|500</t>
+  </si>
+  <si>
+    <t>1001|600;1004|200</t>
+  </si>
+  <si>
+    <t>1001|1500;1004|800</t>
+  </si>
+  <si>
+    <t>1001|2500;1004|1600</t>
+  </si>
+  <si>
+    <t>1003|1200;1004|2400</t>
+  </si>
+  <si>
+    <t>1003|300;1002|650</t>
+  </si>
+  <si>
+    <t>1003|600;1002|1000</t>
+  </si>
+  <si>
+    <t>1003|1000;1002|1500</t>
+  </si>
+  <si>
+    <t>1003|1400;1002|1500</t>
+  </si>
+  <si>
+    <t>1003|2000;1004|1200</t>
+  </si>
+  <si>
+    <t>1003|2800;1004|1800</t>
   </si>
 </sst>
 </file>
@@ -147,6 +147,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -155,7 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,21 +238,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,29 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -229,67 +284,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,19 +306,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,163 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +511,35 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,44 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,16 +603,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,137 +630,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,6 +771,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,12 +1122,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1283,7 +1287,6 @@
       <c r="I5" s="2">
         <v>180</v>
       </c>
-      <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="2">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1319,9 +1322,8 @@
       <c r="I6" s="2">
         <v>210</v>
       </c>
-      <c r="J6" s="2"/>
       <c r="L6" s="2">
-        <v>160</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1338,7 +1340,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="2">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -1352,12 +1354,11 @@
       <c r="I7" s="2">
         <v>240</v>
       </c>
-      <c r="J7" s="2"/>
       <c r="L7" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M7" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1374,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="2">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
@@ -1388,12 +1389,11 @@
       <c r="I8" s="2">
         <v>270</v>
       </c>
-      <c r="J8" s="2"/>
       <c r="L8" s="2">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M8" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1410,7 +1410,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="2">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="F9" s="2">
         <v>6</v>
@@ -1424,12 +1424,11 @@
       <c r="I9" s="2">
         <v>300</v>
       </c>
-      <c r="J9" s="2"/>
       <c r="L9" s="2">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M9" s="2">
-        <v>2400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1446,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="2">
-        <v>125000</v>
+        <v>8400</v>
       </c>
       <c r="F10" s="2">
         <v>7</v>
@@ -1460,9 +1459,8 @@
       <c r="I10" s="2">
         <v>360</v>
       </c>
-      <c r="J10" s="2"/>
       <c r="M10" s="2">
-        <v>10000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1479,7 +1477,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="2">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="F11" s="2">
         <v>4</v>
@@ -1494,10 +1492,10 @@
         <v>180</v>
       </c>
       <c r="L11" s="2">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M11" s="2">
-        <v>160</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1514,7 +1512,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="2">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="F12" s="2">
         <v>4</v>
@@ -1529,10 +1527,10 @@
         <v>210</v>
       </c>
       <c r="L12" s="2">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M12" s="2">
-        <v>320</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1549,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="2">
-        <v>18000</v>
+        <v>3600</v>
       </c>
       <c r="F13" s="2">
         <v>5</v>
@@ -1564,10 +1562,10 @@
         <v>240</v>
       </c>
       <c r="L13" s="2">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="M13" s="2">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1584,7 +1582,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="2">
-        <v>35000</v>
+        <v>4500</v>
       </c>
       <c r="F14" s="2">
         <v>6</v>
@@ -1599,10 +1597,10 @@
         <v>270</v>
       </c>
       <c r="L14" s="2">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M14" s="2">
-        <v>1600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1619,7 +1617,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="2">
-        <v>80000</v>
+        <v>6800</v>
       </c>
       <c r="F15" s="2">
         <v>7</v>
@@ -1634,7 +1632,7 @@
         <v>300</v>
       </c>
       <c r="M15" s="2">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1651,7 +1649,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="2">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="F16" s="2">
         <v>8</v>
@@ -1666,184 +1664,167 @@
         <v>360</v>
       </c>
       <c r="M16" s="2">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="18" spans="15:15">
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="15:15">
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="13:16">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13">
       <c r="M20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="15:16">
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="15:16">
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="13:16">
+    </row>
+    <row r="23" spans="13:13">
       <c r="M23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="12:16">
+    </row>
+    <row r="24" spans="12:15">
       <c r="L24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="12:16">
+      <c r="M24"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="12:15">
       <c r="L25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="10:16">
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="10:15">
       <c r="J26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="12:16">
+      <c r="N26"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="12:15">
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="12:16">
-      <c r="L28" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="12:15">
+      <c r="L28" s="6"/>
       <c r="M28" s="4"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="10:16">
+      <c r="N28"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="10:15">
       <c r="J29" s="3"/>
-      <c r="L29" s="4"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="12:16">
+      <c r="N29" s="6"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="12:15">
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="12:16">
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="12:15">
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="10:16">
-      <c r="J32" s="4"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="10:15">
+      <c r="J32" s="6"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="11:16">
-      <c r="K33" s="4"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="11:15">
+      <c r="K33" s="6"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="12:16">
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="12:15">
       <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="11:16">
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="10:16">
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="11:15">
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="10:15">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="11:16">
-      <c r="K37" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="11:15">
+      <c r="K37" s="6"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="11:16">
-      <c r="K38" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="11:15">
+      <c r="K38" s="6"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="11:16">
-      <c r="K39" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="11:15">
+      <c r="K39" s="6"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="10:16">
-      <c r="J40" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="10:15">
+      <c r="J40" s="6"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="11:13">
-      <c r="K41" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="11:15">
+      <c r="K41" s="6"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="11:13">
-      <c r="K42" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="11:15">
+      <c r="K42" s="6"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="11:13">
-      <c r="K43" s="4"/>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="10:13">
-      <c r="J44" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="11:15">
+      <c r="K43" s="6"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="10:15">
+      <c r="J44" s="6"/>
       <c r="K44"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="13:13">
+      <c r="M44" s="4"/>
+      <c r="N44"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="13:15">
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="11:13">
-      <c r="K46" s="4"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="11:15">
+      <c r="K46" s="6"/>
       <c r="M46" s="3"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="N18:P42">
-    <sortCondition ref="N18"/>
+  <sortState ref="N36:O48">
+    <sortCondition ref="N36"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -155,6 +155,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -163,67 +231,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,15 +262,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,37 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,19 +306,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,25 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,133 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,22 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,32 +554,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,11 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,137 +630,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,8 +774,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1122,12 +1123,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D16"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1282,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>22</v>
@@ -1317,10 +1318,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I6" s="2">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="L6" s="2">
         <v>400</v>
@@ -1349,10 +1350,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>6000</v>
+        <v>1250</v>
       </c>
       <c r="I7" s="2">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="L7" s="2">
         <v>1000</v>
@@ -1384,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="I8" s="2">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="L8" s="2">
         <v>2500</v>
@@ -1419,10 +1420,10 @@
         <v>5</v>
       </c>
       <c r="H9" s="2">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="I9" s="2">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="L9" s="2">
         <v>4500</v>
@@ -1454,10 +1455,10 @@
         <v>6</v>
       </c>
       <c r="H10" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I10" s="2">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="M10" s="2">
         <v>2400</v>
@@ -1486,10 +1487,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="I11" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L11" s="2">
         <v>1300</v>
@@ -1521,10 +1522,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="I12" s="2">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="L12" s="2">
         <v>2000</v>
@@ -1556,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="I13" s="2">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="L13" s="2">
         <v>3000</v>
@@ -1591,10 +1592,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="2">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="I14" s="2">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="L14" s="2">
         <v>4000</v>
@@ -1626,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="I15" s="2">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="M15" s="2">
         <v>2000</v>
@@ -1658,10 +1659,10 @@
         <v>6</v>
       </c>
       <c r="H16" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I16" s="2">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="M16" s="2">
         <v>2800</v>
@@ -1670,162 +1671,72 @@
     <row r="20" spans="13:13">
       <c r="M20" s="3"/>
     </row>
-    <row r="23" spans="13:13">
+    <row r="21" spans="11:15">
+      <c r="K21" s="4"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="11:15">
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="11:15">
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="12:15">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="10:15">
+      <c r="J24" s="4"/>
       <c r="L24" s="3"/>
-      <c r="M24"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="12:15">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="11:15">
+      <c r="K25" s="4"/>
       <c r="L25" s="3"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="10:15">
-      <c r="J26" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="11:15">
+      <c r="K26" s="4"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
-      <c r="N26"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="12:15">
-      <c r="L27" s="3"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="12:15">
-      <c r="L28" s="6"/>
-      <c r="M28" s="4"/>
-      <c r="N28"/>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="10:15">
-      <c r="J29" s="3"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="12:15">
-      <c r="L30" s="3"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="12:15">
-      <c r="L31" s="3"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="10:15">
-      <c r="J32" s="6"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="11:15">
-      <c r="K33" s="6"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="12:15">
-      <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
-      <c r="N34"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="11:15">
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="10:15">
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="11:15">
-      <c r="K37" s="6"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="11:15">
-      <c r="K38" s="6"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="11:15">
-      <c r="K39" s="6"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="10:15">
-      <c r="J40" s="6"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="11:15">
-      <c r="K41" s="6"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="11:15">
-      <c r="K42" s="6"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="11:15">
-      <c r="K43" s="6"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="10:15">
-      <c r="J44" s="6"/>
-      <c r="K44"/>
-      <c r="M44" s="4"/>
-      <c r="N44"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="13:15">
-      <c r="M45" s="3"/>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="11:15">
-      <c r="K46" s="6"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="4"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="11:15">
+      <c r="K27" s="4"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="10:15">
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="13:15">
+      <c r="M29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="11:15">
+      <c r="K30" s="4"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="N36:O48">
-    <sortCondition ref="N36"/>
-  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -148,10 +148,54 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,14 +207,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -178,15 +223,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,26 +268,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,65 +284,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,13 +306,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,169 +456,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,22 +519,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,29 +576,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,17 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,137 +630,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,12 +769,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1128,7 +1122,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1288,6 +1282,9 @@
       <c r="I5" s="2">
         <v>300</v>
       </c>
+      <c r="J5" s="2">
+        <v>100</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1323,6 +1320,9 @@
       <c r="I6" s="2">
         <v>360</v>
       </c>
+      <c r="J6" s="2">
+        <v>250</v>
+      </c>
       <c r="L6" s="2">
         <v>400</v>
       </c>
@@ -1355,6 +1355,9 @@
       <c r="I7" s="2">
         <v>420</v>
       </c>
+      <c r="J7" s="2">
+        <v>800</v>
+      </c>
       <c r="L7" s="2">
         <v>1000</v>
       </c>
@@ -1390,6 +1393,9 @@
       <c r="I8" s="2">
         <v>480</v>
       </c>
+      <c r="J8" s="2">
+        <v>2400</v>
+      </c>
       <c r="L8" s="2">
         <v>2500</v>
       </c>
@@ -1425,6 +1431,9 @@
       <c r="I9" s="2">
         <v>540</v>
       </c>
+      <c r="J9" s="2">
+        <v>6000</v>
+      </c>
       <c r="L9" s="2">
         <v>4500</v>
       </c>
@@ -1460,6 +1469,9 @@
       <c r="I10" s="2">
         <v>600</v>
       </c>
+      <c r="J10" s="2">
+        <v>18000</v>
+      </c>
       <c r="M10" s="2">
         <v>2400</v>
       </c>
@@ -1492,6 +1504,9 @@
       <c r="I11" s="2">
         <v>300</v>
       </c>
+      <c r="J11" s="2">
+        <v>60000</v>
+      </c>
       <c r="L11" s="2">
         <v>1300</v>
       </c>
@@ -1527,6 +1542,9 @@
       <c r="I12" s="2">
         <v>360</v>
       </c>
+      <c r="J12" s="2">
+        <v>200000</v>
+      </c>
       <c r="L12" s="2">
         <v>2000</v>
       </c>
@@ -1672,58 +1690,56 @@
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="11:15">
-      <c r="K21" s="4"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="11:15">
-      <c r="K22" s="4"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="11:15">
-      <c r="K23" s="4"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="10:15">
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="11:15">
-      <c r="K25" s="4"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="11:15">
-      <c r="K26" s="4"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="11:15">
-      <c r="K27" s="4"/>
+      <c r="K27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="4"/>
+      <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="10:15">
-      <c r="J28" s="4"/>
-      <c r="K28" s="5"/>
+      <c r="J28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="5"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="13:15">
@@ -1731,9 +1747,9 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="11:15">
-      <c r="K30" s="4"/>
+      <c r="K30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="4"/>
+      <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -127,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -148,6 +148,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -156,9 +164,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,20 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -192,26 +254,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,74 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,49 +306,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,133 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +519,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,18 +528,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,30 +579,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -598,17 +593,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1122,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I5" s="2">
         <v>300</v>
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="I6" s="2">
         <v>360</v>
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>1250</v>
+        <v>3125</v>
       </c>
       <c r="I7" s="2">
         <v>420</v>
@@ -1388,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="I8" s="2">
         <v>480</v>
@@ -1426,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="2">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="I9" s="2">
         <v>540</v>
@@ -1464,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="2">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="I10" s="2">
         <v>600</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I11" s="2">
         <v>300</v>
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="I12" s="2">
         <v>360</v>
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="I13" s="2">
         <v>420</v>
@@ -1610,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="2">
-        <v>15000</v>
+        <v>37500</v>
       </c>
       <c r="I14" s="2">
         <v>480</v>
@@ -1645,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>45000</v>
+        <v>112500</v>
       </c>
       <c r="I15" s="2">
         <v>540</v>
@@ -1677,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="2">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="I16" s="2">
         <v>600</v>
@@ -1689,37 +1689,27 @@
     <row r="20" spans="13:13">
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="11:15">
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+    <row r="21" spans="13:15">
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="11:15">
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+    <row r="22" spans="13:15">
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="11:15">
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+    <row r="23" spans="13:15">
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="10:15">
-      <c r="J24" s="3"/>
-      <c r="L24" s="3"/>
+    <row r="24" spans="13:15">
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="11:15">
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+    <row r="25" spans="13:15">
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1737,8 +1727,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="10:15">
-      <c r="J28" s="3"/>
+    <row r="28" spans="13:15">
       <c r="M28" s="3"/>
       <c r="O28" s="3"/>
     </row>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -82,43 +82,40 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>1001|25;1002|50</t>
-  </si>
-  <si>
-    <t>主石</t>
-  </si>
-  <si>
-    <t>1001|300;1002|500</t>
-  </si>
-  <si>
-    <t>1001|600;1004|200</t>
-  </si>
-  <si>
-    <t>1001|1500;1004|800</t>
-  </si>
-  <si>
-    <t>1001|2500;1004|1600</t>
-  </si>
-  <si>
-    <t>1003|1200;1004|2400</t>
-  </si>
-  <si>
-    <t>1003|300;1002|650</t>
-  </si>
-  <si>
-    <t>1003|600;1002|1000</t>
-  </si>
-  <si>
-    <t>1003|1000;1002|1500</t>
-  </si>
-  <si>
-    <t>1003|1400;1002|1500</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|1200</t>
-  </si>
-  <si>
-    <t>1003|2800;1004|1800</t>
+    <t>1001|15;1002|30</t>
+  </si>
+  <si>
+    <t>1001|50;1002|100</t>
+  </si>
+  <si>
+    <t>1001|200;1004|200</t>
+  </si>
+  <si>
+    <t>1001|600;1004|600</t>
+  </si>
+  <si>
+    <t>1001|1680;1004|1400</t>
+  </si>
+  <si>
+    <t>1003|660;1004|2200</t>
+  </si>
+  <si>
+    <t>1003|300;1002|150</t>
+  </si>
+  <si>
+    <t>1003|500;1002|320</t>
+  </si>
+  <si>
+    <t>1003|800;1002|480</t>
+  </si>
+  <si>
+    <t>1003|1200;1002|900</t>
+  </si>
+  <si>
+    <t>1003|1800;1004|1080</t>
+  </si>
+  <si>
+    <t>1003|2600;1004|2080</t>
   </si>
 </sst>
 </file>
@@ -127,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -147,6 +144,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -155,89 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -246,50 +281,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -312,25 +309,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,151 +459,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,24 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -544,21 +523,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,8 +560,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,16 +600,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,19 +627,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,112 +648,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,12 +1114,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1254,7 +1251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1285,14 +1282,8 @@
       <c r="J5" s="2">
         <v>100</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1303,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>800</v>
@@ -1323,11 +1314,8 @@
       <c r="J6" s="2">
         <v>250</v>
       </c>
-      <c r="L6" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1338,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>1800</v>
@@ -1358,14 +1346,8 @@
       <c r="J7" s="2">
         <v>800</v>
       </c>
-      <c r="L7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1376,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>3200</v>
@@ -1396,14 +1378,8 @@
       <c r="J8" s="2">
         <v>2400</v>
       </c>
-      <c r="L8" s="2">
-        <v>2500</v>
-      </c>
-      <c r="M8" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1414,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>5000</v>
@@ -1434,14 +1410,8 @@
       <c r="J9" s="2">
         <v>6000</v>
       </c>
-      <c r="L9" s="2">
-        <v>4500</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1452,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>8400</v>
@@ -1472,11 +1442,8 @@
       <c r="J10" s="2">
         <v>18000</v>
       </c>
-      <c r="M10" s="2">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1487,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2">
         <v>2200</v>
@@ -1507,14 +1474,8 @@
       <c r="J11" s="2">
         <v>60000</v>
       </c>
-      <c r="L11" s="2">
-        <v>1300</v>
-      </c>
-      <c r="M11" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1525,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2">
         <v>2800</v>
@@ -1545,14 +1506,8 @@
       <c r="J12" s="2">
         <v>200000</v>
       </c>
-      <c r="L12" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M12" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1563,7 +1518,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2">
         <v>3600</v>
@@ -1580,14 +1535,8 @@
       <c r="I13" s="2">
         <v>420</v>
       </c>
-      <c r="L13" s="2">
-        <v>3000</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1598,7 +1547,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2">
         <v>4500</v>
@@ -1615,14 +1564,8 @@
       <c r="I14" s="2">
         <v>480</v>
       </c>
-      <c r="L14" s="2">
-        <v>4000</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1633,7 +1576,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2">
         <v>6800</v>
@@ -1650,11 +1593,8 @@
       <c r="I15" s="2">
         <v>540</v>
       </c>
-      <c r="M15" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1665,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2">
         <v>11000</v>
@@ -1682,64 +1622,36 @@
       <c r="I16" s="2">
         <v>600</v>
       </c>
-      <c r="M16" s="2">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="20" spans="13:13">
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="13:15">
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="13:15">
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="13:15">
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="13:15">
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="13:15">
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="11:15">
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="11:11">
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="11:15">
+    </row>
+    <row r="27" spans="11:11">
       <c r="K27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="13:15">
-      <c r="M28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="13:15">
-      <c r="M29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="11:15">
+    </row>
+    <row r="28" spans="11:11">
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="11:11">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="11:11">
       <c r="K30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>1001|15;1002|30</t>
   </si>
   <si>
-    <t>1001|50;1002|100</t>
+    <t>1001|75;1002|150</t>
   </si>
   <si>
     <t>1001|200;1004|200</t>
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -145,7 +145,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,58 +268,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,69 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -303,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,31 +513,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +538,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,17 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -151,6 +151,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -158,8 +174,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,16 +228,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,98 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -303,43 +303,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,139 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +512,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -527,32 +542,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,25 +560,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -609,16 +594,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -82,40 +82,40 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>1001|15;1002|30</t>
-  </si>
-  <si>
-    <t>1001|75;1002|150</t>
-  </si>
-  <si>
-    <t>1001|200;1004|200</t>
-  </si>
-  <si>
-    <t>1001|600;1004|600</t>
-  </si>
-  <si>
-    <t>1001|1680;1004|1400</t>
-  </si>
-  <si>
-    <t>1003|660;1004|2200</t>
-  </si>
-  <si>
-    <t>1003|300;1002|150</t>
-  </si>
-  <si>
-    <t>1003|500;1002|320</t>
-  </si>
-  <si>
-    <t>1003|800;1002|480</t>
-  </si>
-  <si>
-    <t>1003|1200;1002|900</t>
-  </si>
-  <si>
-    <t>1003|1800;1004|1080</t>
-  </si>
-  <si>
-    <t>1003|2600;1004|2080</t>
+    <t>1001|30;1002|30</t>
+  </si>
+  <si>
+    <t>1001|150;1002|150</t>
+  </si>
+  <si>
+    <t>1001|400;1004|200</t>
+  </si>
+  <si>
+    <t>1001|1000;1004|600</t>
+  </si>
+  <si>
+    <t>1001|2100;1004|1400</t>
+  </si>
+  <si>
+    <t>1003|2200;1004|2200</t>
+  </si>
+  <si>
+    <t>1002|500;1003|300</t>
+  </si>
+  <si>
+    <t>1002|800;1003|500</t>
+  </si>
+  <si>
+    <t>1002|1200;1003|800</t>
+  </si>
+  <si>
+    <t>1002|1800;1003|1200</t>
+  </si>
+  <si>
+    <t>1003|1800;1004|1800</t>
+  </si>
+  <si>
+    <t>1003|2600;1004|2600</t>
   </si>
 </sst>
 </file>
@@ -145,7 +145,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,25 +198,47 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,13 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -206,25 +259,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,22 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,29 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -303,13 +303,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,13 +405,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,151 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +508,24 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,18 +562,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,35 +603,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -124,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -144,8 +144,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,7 +162,38 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +201,65 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,50 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,53 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -303,25 +303,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,157 +453,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,20 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +559,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -585,40 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L$1:L$1048576"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1341,7 +1341,7 @@
         <v>3125</v>
       </c>
       <c r="I7" s="2">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="J7" s="2">
         <v>800</v>
@@ -1373,7 +1373,7 @@
         <v>30000</v>
       </c>
       <c r="I8" s="2">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="J8" s="2">
         <v>2400</v>
@@ -1405,7 +1405,7 @@
         <v>75000</v>
       </c>
       <c r="I9" s="2">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="J9" s="2">
         <v>6000</v>
@@ -1437,7 +1437,7 @@
         <v>250000</v>
       </c>
       <c r="I10" s="2">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="J10" s="2">
         <v>18000</v>
@@ -1533,7 +1533,7 @@
         <v>12500</v>
       </c>
       <c r="I13" s="2">
-        <v>420</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1562,7 +1562,7 @@
         <v>37500</v>
       </c>
       <c r="I14" s="2">
-        <v>480</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1591,7 +1591,7 @@
         <v>112500</v>
       </c>
       <c r="I15" s="2">
-        <v>540</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1620,7 +1620,7 @@
         <v>250000</v>
       </c>
       <c r="I16" s="2">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="11:11">

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -123,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -144,6 +144,103 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -152,42 +249,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,72 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -273,6 +273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,13 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -303,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,16 +513,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,26 +542,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,31 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,12 +1114,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1251,7 +1251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1277,13 +1277,16 @@
         <v>250</v>
       </c>
       <c r="I5" s="2">
-        <v>300</v>
-      </c>
-      <c r="J5" s="2">
+        <v>360</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1309,13 +1312,16 @@
         <v>1250</v>
       </c>
       <c r="I6" s="2">
-        <v>360</v>
-      </c>
-      <c r="J6" s="2">
+        <v>480</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1341,13 +1347,16 @@
         <v>3125</v>
       </c>
       <c r="I7" s="2">
-        <v>480</v>
-      </c>
-      <c r="J7" s="2">
+        <v>600</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1373,13 +1382,16 @@
         <v>30000</v>
       </c>
       <c r="I8" s="2">
-        <v>600</v>
-      </c>
-      <c r="J8" s="2">
+        <v>720</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1405,13 +1417,16 @@
         <v>75000</v>
       </c>
       <c r="I9" s="2">
-        <v>720</v>
-      </c>
-      <c r="J9" s="2">
+        <v>900</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1437,13 +1452,16 @@
         <v>250000</v>
       </c>
       <c r="I10" s="2">
-        <v>900</v>
-      </c>
-      <c r="J10" s="2">
+        <v>1200</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
+      <c r="L10" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1469,13 +1487,16 @@
         <v>2500</v>
       </c>
       <c r="I11" s="2">
-        <v>300</v>
-      </c>
-      <c r="J11" s="2">
+        <v>360</v>
+      </c>
+      <c r="K11" s="2">
+        <v>7</v>
+      </c>
+      <c r="L11" s="2">
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1501,9 +1522,12 @@
         <v>5000</v>
       </c>
       <c r="I12" s="2">
-        <v>360</v>
-      </c>
-      <c r="J12" s="2">
+        <v>480</v>
+      </c>
+      <c r="K12" s="2">
+        <v>8</v>
+      </c>
+      <c r="L12" s="2">
         <v>200000</v>
       </c>
     </row>
@@ -1530,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="I13" s="2">
-        <v>480</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1559,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="2">
-        <v>37500</v>
+        <v>60000</v>
       </c>
       <c r="I14" s="2">
-        <v>600</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1588,10 +1612,10 @@
         <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>112500</v>
+        <v>200000</v>
       </c>
       <c r="I15" s="2">
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1620,7 +1644,7 @@
         <v>250000</v>
       </c>
       <c r="I16" s="2">
-        <v>900</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="11:11">

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -124,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,10 +158,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,28 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -203,6 +205,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -211,28 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -240,53 +287,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -303,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,17 +512,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,26 +562,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,45 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,28 +630,28 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,100 +660,100 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1277,7 +1277,7 @@
         <v>250</v>
       </c>
       <c r="I5" s="2">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>1250</v>
       </c>
       <c r="I6" s="2">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
@@ -1347,7 +1347,7 @@
         <v>3125</v>
       </c>
       <c r="I7" s="2">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K7" s="2">
         <v>3</v>
@@ -1382,7 +1382,7 @@
         <v>30000</v>
       </c>
       <c r="I8" s="2">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="K8" s="2">
         <v>4</v>
@@ -1417,7 +1417,7 @@
         <v>75000</v>
       </c>
       <c r="I9" s="2">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="K9" s="2">
         <v>5</v>
@@ -1452,7 +1452,7 @@
         <v>250000</v>
       </c>
       <c r="I10" s="2">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K10" s="2">
         <v>6</v>
@@ -1487,7 +1487,7 @@
         <v>2500</v>
       </c>
       <c r="I11" s="2">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K11" s="2">
         <v>7</v>
@@ -1522,7 +1522,7 @@
         <v>5000</v>
       </c>
       <c r="I12" s="2">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="K12" s="2">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         <v>25000</v>
       </c>
       <c r="I13" s="2">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1586,7 +1586,7 @@
         <v>60000</v>
       </c>
       <c r="I14" s="2">
-        <v>720</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1615,7 +1615,7 @@
         <v>200000</v>
       </c>
       <c r="I15" s="2">
-        <v>900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1644,7 +1644,7 @@
         <v>250000</v>
       </c>
       <c r="I16" s="2">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="21" spans="11:11">

--- a/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPracticeField.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,37 +85,37 @@
     <t>1001|30;1002|30</t>
   </si>
   <si>
-    <t>1001|150;1002|150</t>
-  </si>
-  <si>
-    <t>1001|400;1004|200</t>
+    <t>1001|120;1002|120</t>
+  </si>
+  <si>
+    <t>1001|210;1004|100</t>
+  </si>
+  <si>
+    <t>1001|400;1004|250</t>
   </si>
   <si>
     <t>1001|1000;1004|600</t>
   </si>
   <si>
-    <t>1001|2100;1004|1400</t>
-  </si>
-  <si>
-    <t>1003|2200;1004|2200</t>
+    <t>1003|1500;1004|1500</t>
+  </si>
+  <si>
+    <t>1002|250;1003|120</t>
+  </si>
+  <si>
+    <t>1002|350;1003|200</t>
   </si>
   <si>
     <t>1002|500;1003|300</t>
   </si>
   <si>
-    <t>1002|800;1003|500</t>
-  </si>
-  <si>
-    <t>1002|1200;1003|800</t>
-  </si>
-  <si>
-    <t>1002|1800;1003|1200</t>
-  </si>
-  <si>
-    <t>1003|1800;1004|1800</t>
-  </si>
-  <si>
-    <t>1003|2600;1004|2600</t>
+    <t>1002|800;1003|400</t>
+  </si>
+  <si>
+    <t>1003|1000;1004|1000</t>
+  </si>
+  <si>
+    <t>1003|2000;1004|2000</t>
   </si>
 </sst>
 </file>
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -145,14 +145,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,21 +227,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -189,9 +234,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,47 +272,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,37 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -303,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +512,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -527,7 +551,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,39 +596,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
